--- a/PORECT.API/Template/Template Upload Booking.xlsx
+++ b/PORECT.API/Template/Template Upload Booking.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\source\repos\InterviewSwapro\PORECT.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D34EF9B-9FEF-482B-8316-8F80493AFCD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFE9FF7-DEA4-4BA5-A047-7C9F771F2EE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Room Registration" sheetId="3" r:id="rId1"/>
+    <sheet name="Room Booking" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Room Registration'!$B$3:$M$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Room Booking'!$B$3:$M$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
